--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202102-r4ds-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202106-r4ds-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AC935-56BB-8B45-A1A7-866A8488E80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434C944-32C4-C14D-B95D-498A6F2CB41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>aula</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>https://livro.curso-r.com/8-1-o-pacote-ggplot2.html#exerc%C3%ADcios-17</t>
+  </si>
+  <si>
+    <t>Exercícios — Criando/modificando colunas</t>
+  </si>
+  <si>
+    <t>Exercícios — Sumarizando a base</t>
+  </si>
+  <si>
+    <t>Exercícios — Joins</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-2-dplyr.html#juntando-duas-bases</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-2-dplyr.html#summarisando-a-base</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-2-dplyr.html#modificando-e-criando-novas-colunas</t>
   </si>
 </sst>
 </file>
@@ -489,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="A16:B18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -712,6 +730,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
